--- a/static/download/2017/RP2_SAF_EoSM_2017.xlsx
+++ b/static/download/2017/RP2_SAF_EoSM_2017.xlsx
@@ -17,20 +17,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="121">
+  <si>
+    <t>Data source</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
   <si>
     <t>ANSP</t>
   </si>
   <si>
-    <t>Data source</t>
-  </si>
-  <si>
-    <t>STATE</t>
+    <t>EASA</t>
   </si>
   <si>
     <t>FAB</t>
   </si>
   <si>
+    <t>Version</t>
+  </si>
+  <si>
     <t>EoSM Score (2015)</t>
   </si>
   <si>
@@ -46,66 +52,60 @@
     <t>EoSM Score (2019)</t>
   </si>
   <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Release date</t>
+  </si>
+  <si>
     <t>ORO NAVIGACIJA</t>
   </si>
   <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>EASA</t>
-  </si>
-  <si>
     <t>Baltic FAB</t>
   </si>
   <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Release date</t>
+    <t>Meta data</t>
+  </si>
+  <si>
+    <t>Effectiveness of Safety Management (EoSM)</t>
+  </si>
+  <si>
+    <t>PANSA</t>
   </si>
   <si>
     <t>Poland</t>
   </si>
   <si>
-    <t>Meta data</t>
-  </si>
-  <si>
-    <t>Effectiveness of Safety Management (EoSM)</t>
-  </si>
-  <si>
-    <t>PANSA</t>
-  </si>
-  <si>
     <t>Contact</t>
   </si>
   <si>
     <t>NSA-PRU-Support@eurocontrol.int</t>
   </si>
   <si>
+    <t>CYATS</t>
+  </si>
+  <si>
+    <t>BLUE MED FAB</t>
+  </si>
+  <si>
     <t>Cyprus</t>
   </si>
   <si>
-    <t>BLUE MED FAB</t>
-  </si>
-  <si>
-    <t>CYATS</t>
+    <t>Greece</t>
   </si>
   <si>
     <t>HANSP</t>
   </si>
   <si>
-    <t>Greece</t>
-  </si>
-  <si>
     <t>ENAV</t>
   </si>
   <si>
+    <t>Italy</t>
+  </si>
+  <si>
     <t>MATS</t>
   </si>
   <si>
-    <t>Italy</t>
-  </si>
-  <si>
     <t>Malta</t>
   </si>
   <si>
@@ -121,163 +121,160 @@
     <t>ROMATSA</t>
   </si>
   <si>
+    <t>Romania</t>
+  </si>
+  <si>
     <t>NAVIAIR</t>
   </si>
   <si>
     <t>DK-SE FAB</t>
   </si>
   <si>
+    <t>Denmark</t>
+  </si>
+  <si>
     <t>LFV NUAC</t>
   </si>
   <si>
+    <t>Sweden</t>
+  </si>
+  <si>
     <t>Austro Control</t>
   </si>
   <si>
     <t>FAB CE</t>
   </si>
   <si>
+    <t>Austria</t>
+  </si>
+  <si>
     <t>Croatia Control</t>
   </si>
   <si>
+    <t>Croatia</t>
+  </si>
+  <si>
     <t>ANS CR</t>
   </si>
   <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
     <t>HungaroControl</t>
   </si>
   <si>
     <t>LPS SR</t>
   </si>
   <si>
+    <t>Hungary</t>
+  </si>
+  <si>
     <t>Slovenia Control</t>
   </si>
   <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
     <t>Belgocontrol</t>
   </si>
   <si>
     <t>FABEC</t>
   </si>
   <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
     <t>DSNA</t>
   </si>
   <si>
+    <t>Belgium</t>
+  </si>
+  <si>
     <t>DFS</t>
   </si>
   <si>
-    <t>Romania</t>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>NEFAB</t>
   </si>
   <si>
     <t>ANA LUX</t>
   </si>
   <si>
-    <t>Denmark</t>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Latvia</t>
   </si>
   <si>
     <t>LVNL</t>
   </si>
   <si>
-    <t>Sweden</t>
+    <t>Norway</t>
   </si>
   <si>
     <t>MUAC</t>
   </si>
   <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>SW FAB</t>
+  </si>
+  <si>
     <t>SKYGUIDE</t>
   </si>
   <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>UK-Ireland FAB</t>
+  </si>
+  <si>
     <t>EANS</t>
   </si>
   <si>
-    <t>NEFAB</t>
-  </si>
-  <si>
-    <t>Austria</t>
+    <t>United Kingdom</t>
   </si>
   <si>
     <t>ANS Finland</t>
   </si>
   <si>
-    <t>Croatia</t>
-  </si>
-  <si>
     <t>LGS</t>
   </si>
   <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
     <t>Avinor</t>
   </si>
   <si>
-    <t>Hungary</t>
-  </si>
-  <si>
     <t>NAV Portugal</t>
   </si>
   <si>
-    <t>SW FAB</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
     <t>ENAIRE</t>
   </si>
   <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
     <t>IAA</t>
   </si>
   <si>
-    <t>UK-Ireland FAB</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
     <t>NATS NERL</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>No data</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>Minimum Level Achieved</t>
@@ -356,22 +353,34 @@
     <t>E</t>
   </si>
   <si>
+    <t>Change date</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>complete dataset as from EASA's GARCIA-CHICO Jose Luis email</t>
+  </si>
+  <si>
+    <t>EoSM_ANSP_MIN_LEV</t>
+  </si>
+  <si>
     <t>Skyguide</t>
   </si>
   <si>
-    <t>Change date</t>
-  </si>
-  <si>
-    <t>Entity</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>complete dataset as from EASA's GARCIA-CHICO Jose Luis email</t>
+    <t>IAA Component 1 changed from B to D</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>updated with the latest information from EASA</t>
   </si>
 </sst>
 </file>
@@ -388,11 +397,16 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="9.0"/>
+      <color rgb="FF396EA2"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
       <sz val="9.0"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
@@ -400,11 +414,6 @@
     <font>
       <sz val="10.0"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF396EA2"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -443,26 +452,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF93C47D"/>
         <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
         <bgColor rgb="FFBFBFBF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -490,8 +499,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -500,12 +515,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom/>
     </border>
     <border>
@@ -657,95 +666,130 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="5" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="5" fontId="3" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="5" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="5" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="4" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="3" fillId="4" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="5" fontId="3" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="5" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="4" fontId="4" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="8" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="4" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="5" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="4" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="4" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="4" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="6" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="15" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="16" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="17" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="18" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="16" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="6" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="6" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="8" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="6" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="6" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="9" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="7" fillId="8" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="9" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="6" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="9" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="3" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="20" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="10" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="5" fontId="3" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="5" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="2" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="6" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="15" fillId="7" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="16" fillId="7" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="7" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="7" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="8" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="16" fillId="2" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="2" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="6" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="6" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="7" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="9" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="3" fillId="8" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="9" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="6" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="9" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="6" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="8" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="6" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="2" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="19" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="5" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+    <xf borderId="19" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="19" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -799,42 +843,42 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>11</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
         <v>1.1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="10">
-        <v>43228.0</v>
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7">
+        <v>43311.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1847,592 +1891,592 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="9">
         <v>43.0</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="10">
         <v>48.0</v>
       </c>
-      <c r="E2" s="7">
-        <v>50.32</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="9"/>
+      <c r="E2" s="10">
+        <v>55.0</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="A3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="17">
         <v>56.0</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="16">
         <v>54.0</v>
       </c>
-      <c r="E3" s="14">
-        <v>54.38</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="16"/>
+      <c r="E3" s="16">
+        <v>54.0</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>52.0</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="20">
         <v>55.0</v>
       </c>
-      <c r="E4" s="18">
-        <v>52.4</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="9"/>
+      <c r="E4" s="20">
+        <v>52.0</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="23">
         <v>66.0</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="20">
         <v>71.0</v>
       </c>
-      <c r="E5" s="18">
-        <v>72.91</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+      <c r="E5" s="20">
+        <v>73.0</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="23">
         <v>52.0</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="20">
         <v>63.0</v>
       </c>
-      <c r="E6" s="18">
-        <v>66.36</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="E6" s="20">
+        <v>66.0</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="17">
         <v>50.0</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="16">
         <v>52.0</v>
       </c>
-      <c r="E7" s="14">
-        <v>51.98</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="16"/>
+      <c r="E7" s="16">
+        <v>52.0</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="9">
         <v>48.0</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="20">
         <v>40.0</v>
       </c>
-      <c r="E8" s="18">
-        <v>43.03</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="9"/>
+      <c r="E8" s="20">
+        <v>47.0</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="17">
         <v>60.0</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="16">
         <v>61.0</v>
       </c>
-      <c r="E9" s="14">
-        <v>56.24</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="16"/>
+      <c r="E9" s="16">
+        <v>56.0</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="A10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="9">
         <v>42.0</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="20">
         <v>46.0</v>
       </c>
-      <c r="E10" s="18">
-        <v>46.99</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="9"/>
+      <c r="E10" s="20">
+        <v>47.0</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="12">
+      <c r="A11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="17">
         <v>54.0</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="16">
         <v>61.0</v>
       </c>
-      <c r="E11" s="14">
-        <v>49.88</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="16"/>
+      <c r="E11" s="16">
+        <v>52.0</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="A12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="9">
         <v>58.0</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="20">
         <v>61.0</v>
       </c>
-      <c r="E12" s="18">
-        <v>65.81</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="9"/>
+      <c r="E12" s="20">
+        <v>66.0</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="23">
+        <v>47.0</v>
+      </c>
+      <c r="D13" s="20">
+        <v>49.0</v>
+      </c>
+      <c r="E13" s="20">
+        <v>55.0</v>
+      </c>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="23">
+        <v>69.0</v>
+      </c>
+      <c r="D14" s="20">
+        <v>72.0</v>
+      </c>
+      <c r="E14" s="20">
+        <v>79.0</v>
+      </c>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="23">
+        <v>46.0</v>
+      </c>
+      <c r="D15" s="20">
+        <v>45.0</v>
+      </c>
+      <c r="E15" s="20">
+        <v>46.0</v>
+      </c>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="23">
+        <v>56.0</v>
+      </c>
+      <c r="D16" s="20">
+        <v>60.0</v>
+      </c>
+      <c r="E16" s="20">
+        <v>60.0</v>
+      </c>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="17">
+        <v>42.0</v>
+      </c>
+      <c r="D17" s="16">
+        <v>58.0</v>
+      </c>
+      <c r="E17" s="16">
+        <v>72.0</v>
+      </c>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="9">
+        <v>62.0</v>
+      </c>
+      <c r="D18" s="20">
+        <v>64.0</v>
+      </c>
+      <c r="E18" s="20">
+        <v>64.0</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="23">
+        <v>64.0</v>
+      </c>
+      <c r="D19" s="20">
+        <v>71.0</v>
+      </c>
+      <c r="E19" s="20">
+        <v>72.0</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="20">
+      <c r="B20" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="23">
+        <v>55.0</v>
+      </c>
+      <c r="D20" s="20">
+        <v>70.0</v>
+      </c>
+      <c r="E20" s="20">
+        <v>69.0</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="23">
         <v>47.0</v>
       </c>
-      <c r="D13" s="18">
-        <v>49.0</v>
-      </c>
-      <c r="E13" s="18">
-        <v>53.93</v>
-      </c>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="19" t="s">
+      <c r="D21" s="20">
+        <v>58.0</v>
+      </c>
+      <c r="E21" s="20">
+        <v>63.0</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="20">
-        <v>69.0</v>
-      </c>
-      <c r="D14" s="18">
-        <v>72.0</v>
-      </c>
-      <c r="E14" s="18">
-        <v>79.46</v>
-      </c>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="19" t="s">
+      <c r="B22" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="23">
+        <v>59.0</v>
+      </c>
+      <c r="D22" s="20">
+        <v>64.0</v>
+      </c>
+      <c r="E22" s="20">
+        <v>70.0</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="17">
+        <v>66.0</v>
+      </c>
+      <c r="D23" s="16">
+        <v>71.0</v>
+      </c>
+      <c r="E23" s="16">
+        <v>76.0</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="20">
+      <c r="B24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="9">
         <v>46.0</v>
       </c>
-      <c r="D15" s="18">
-        <v>45.0</v>
-      </c>
-      <c r="E15" s="18">
-        <v>45.82</v>
-      </c>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="19" t="s">
+      <c r="D24" s="20">
+        <v>53.0</v>
+      </c>
+      <c r="E24" s="20">
+        <v>57.0</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="20">
+      <c r="B25" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="23">
+        <v>61.0</v>
+      </c>
+      <c r="D25" s="20">
+        <v>75.0</v>
+      </c>
+      <c r="E25" s="20">
+        <v>84.0</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="23">
+        <v>58.0</v>
+      </c>
+      <c r="D26" s="20">
+        <v>64.0</v>
+      </c>
+      <c r="E26" s="20">
+        <v>63.0</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="17">
+        <v>52.0</v>
+      </c>
+      <c r="D27" s="16">
         <v>56.0</v>
       </c>
-      <c r="D16" s="18">
+      <c r="E27" s="16">
         <v>60.0</v>
       </c>
-      <c r="E16" s="18">
-        <v>59.87</v>
-      </c>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="12">
-        <v>42.0</v>
-      </c>
-      <c r="D17" s="14">
-        <v>58.0</v>
-      </c>
-      <c r="E17" s="14">
-        <v>70.51</v>
-      </c>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="F27" s="15"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="9">
+        <v>44.0</v>
+      </c>
+      <c r="D28" s="20">
+        <v>41.0</v>
+      </c>
+      <c r="E28" s="20">
+        <v>50.0</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="17">
+        <v>56.0</v>
+      </c>
+      <c r="D29" s="16">
+        <v>59.0</v>
+      </c>
+      <c r="E29" s="16">
         <v>62.0</v>
       </c>
-      <c r="D18" s="18">
-        <v>64.0</v>
-      </c>
-      <c r="E18" s="18">
-        <v>64.47</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="20">
-        <v>64.0</v>
-      </c>
-      <c r="D19" s="18">
-        <v>71.0</v>
-      </c>
-      <c r="E19" s="18">
-        <v>71.66</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="20">
-        <v>55.0</v>
-      </c>
-      <c r="D20" s="18">
-        <v>70.0</v>
-      </c>
-      <c r="E20" s="18">
-        <v>68.52</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="20">
-        <v>47.0</v>
-      </c>
-      <c r="D21" s="18">
-        <v>58.0</v>
-      </c>
-      <c r="E21" s="18">
-        <v>62.51</v>
-      </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="19" t="s">
+      <c r="F29" s="15"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="20">
-        <v>59.0</v>
-      </c>
-      <c r="D22" s="18">
-        <v>64.0</v>
-      </c>
-      <c r="E22" s="18">
-        <v>70.41</v>
-      </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="12">
-        <v>66.0</v>
-      </c>
-      <c r="D23" s="14">
-        <v>71.0</v>
-      </c>
-      <c r="E23" s="14">
-        <v>75.6</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="s">
+      <c r="C30" s="9">
+        <v>79.0</v>
+      </c>
+      <c r="D30" s="20">
+        <v>79.0</v>
+      </c>
+      <c r="E30" s="20">
+        <v>86.0</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="6">
-        <v>46.0</v>
-      </c>
-      <c r="D24" s="18">
-        <v>53.0</v>
-      </c>
-      <c r="E24" s="18">
-        <v>56.89</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="20">
-        <v>61.0</v>
-      </c>
-      <c r="D25" s="18">
-        <v>75.0</v>
-      </c>
-      <c r="E25" s="18">
-        <v>84.38</v>
-      </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="20">
-        <v>58.0</v>
-      </c>
-      <c r="D26" s="18">
-        <v>64.0</v>
-      </c>
-      <c r="E26" s="18">
-        <v>63.31</v>
-      </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="12">
-        <v>52.0</v>
-      </c>
-      <c r="D27" s="14">
-        <v>56.0</v>
-      </c>
-      <c r="E27" s="14">
-        <v>56.15</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="6">
-        <v>44.0</v>
-      </c>
-      <c r="D28" s="18">
-        <v>41.0</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="12">
-        <v>56.0</v>
-      </c>
-      <c r="D29" s="14">
-        <v>59.0</v>
-      </c>
-      <c r="E29" s="14">
-        <v>61.64</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="6">
-        <v>79.0</v>
-      </c>
-      <c r="D30" s="18">
-        <v>79.0</v>
-      </c>
-      <c r="E30" s="18">
-        <v>84.78</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="12">
+      <c r="B31" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="17">
         <v>81.0</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="16">
         <v>86.0</v>
       </c>
-      <c r="E31" s="14">
-        <v>86.64</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="16"/>
+      <c r="E31" s="16">
+        <v>88.0</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="19"/>
     </row>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -3429,603 +3473,603 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="10">
         <v>82.0</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="10">
         <v>82.0</v>
       </c>
-      <c r="E2" s="7">
-        <v>78.39</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="9"/>
+      <c r="E2" s="10">
+        <v>78.0</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="16">
         <v>24.0</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="16">
         <v>29.0</v>
       </c>
-      <c r="E3" s="14">
-        <v>45.35</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="16"/>
+      <c r="E3" s="16">
+        <v>45.0</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="20">
         <v>62.0</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="20">
         <v>58.0</v>
       </c>
-      <c r="E4" s="18">
-        <v>57.66</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="9"/>
+      <c r="E4" s="20">
+        <v>58.0</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="20">
         <v>73.0</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="20">
         <v>75.0</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="20">
         <v>75.0</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="20">
         <v>76.0</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="20">
         <v>77.0</v>
       </c>
-      <c r="E6" s="18">
-        <v>76.1</v>
-      </c>
-      <c r="G6" s="21"/>
+      <c r="E6" s="20">
+        <v>76.0</v>
+      </c>
+      <c r="G6" s="24"/>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="16">
         <v>82.0</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="16">
         <v>83.0</v>
       </c>
-      <c r="E7" s="14">
-        <v>84.86</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="16"/>
+      <c r="E7" s="16">
+        <v>85.0</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="20">
         <v>86.0</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="20">
         <v>86.0</v>
       </c>
-      <c r="E8" s="18">
-        <v>91.56</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="9"/>
+      <c r="E8" s="20">
+        <v>92.0</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="16">
         <v>82.0</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="16">
         <v>84.0</v>
       </c>
-      <c r="E9" s="14">
-        <v>83.86</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="16"/>
+      <c r="E9" s="16">
+        <v>84.0</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="18">
+      <c r="B10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="20">
         <v>88.0</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="20">
         <v>88.0</v>
       </c>
-      <c r="E10" s="18">
-        <v>86.74</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="9"/>
+      <c r="E10" s="20">
+        <v>87.0</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="C11" s="16">
         <v>74.0</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="16">
         <v>77.0</v>
       </c>
-      <c r="E11" s="14">
-        <v>78.61</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16"/>
+      <c r="E11" s="16">
+        <v>79.0</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="A12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="20">
         <v>90.0</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="20">
         <v>91.0</v>
       </c>
-      <c r="E12" s="18">
-        <v>90.82</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="9"/>
+      <c r="E12" s="20">
+        <v>91.0</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13">
-      <c r="A13" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="18">
+      <c r="A13" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="20">
         <v>77.0</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="20">
         <v>82.0</v>
       </c>
-      <c r="E13" s="18">
-        <v>84.7</v>
-      </c>
-      <c r="G13" s="21"/>
+      <c r="E13" s="20">
+        <v>85.0</v>
+      </c>
+      <c r="G13" s="24"/>
     </row>
     <row r="14">
-      <c r="A14" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="18">
+      <c r="A14" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="20">
         <v>83.0</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="20">
         <v>83.0</v>
       </c>
-      <c r="E14" s="18">
-        <v>82.68</v>
-      </c>
-      <c r="G14" s="21"/>
+      <c r="E14" s="20">
+        <v>83.0</v>
+      </c>
+      <c r="G14" s="24"/>
     </row>
     <row r="15">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="18">
+      <c r="C15" s="20">
         <v>78.0</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="20">
         <v>77.0</v>
       </c>
-      <c r="E15" s="18">
-        <v>78.97</v>
-      </c>
-      <c r="G15" s="21"/>
+      <c r="E15" s="20">
+        <v>79.0</v>
+      </c>
+      <c r="G15" s="24"/>
     </row>
     <row r="16">
-      <c r="A16" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="18">
+      <c r="A16" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="20">
         <v>88.0</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="20">
         <v>86.0</v>
       </c>
-      <c r="E16" s="18">
-        <v>89.11</v>
-      </c>
-      <c r="G16" s="21"/>
+      <c r="E16" s="20">
+        <v>89.0</v>
+      </c>
+      <c r="G16" s="24"/>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="14">
+      <c r="A17" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="16">
         <v>74.0</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="16">
         <v>70.0</v>
       </c>
-      <c r="E17" s="14">
-        <v>76.4</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="16"/>
+      <c r="E17" s="16">
+        <v>76.0</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="A18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="20">
         <v>76.0</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="20">
         <v>78.0</v>
       </c>
-      <c r="E18" s="18">
-        <v>82.38</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="9"/>
+      <c r="E18" s="20">
+        <v>82.0</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19">
-      <c r="A19" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="18">
+      <c r="A19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="20">
         <v>86.0</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="20">
         <v>85.0</v>
       </c>
-      <c r="E19" s="18">
-        <v>91.1</v>
-      </c>
-      <c r="G19" s="21"/>
+      <c r="E19" s="20">
+        <v>91.0</v>
+      </c>
+      <c r="G19" s="24"/>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="18">
+      <c r="A20" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="20">
         <v>92.0</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="20">
         <v>92.0</v>
       </c>
-      <c r="E20" s="18">
-        <v>93.5</v>
-      </c>
-      <c r="G20" s="21"/>
+      <c r="E20" s="20">
+        <v>94.0</v>
+      </c>
+      <c r="G20" s="24"/>
     </row>
     <row r="21">
-      <c r="A21" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="18">
+      <c r="A21" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="20">
         <v>71.0</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="20">
         <v>74.0</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="20">
         <v>79.0</v>
       </c>
-      <c r="G21" s="21"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22">
-      <c r="A22" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="18">
+      <c r="A22" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="20">
         <v>86.0</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="20">
         <v>85.0</v>
       </c>
-      <c r="E22" s="18">
-        <v>74.67</v>
-      </c>
-      <c r="G22" s="21"/>
+      <c r="E22" s="20">
+        <v>75.0</v>
+      </c>
+      <c r="G22" s="24"/>
     </row>
     <row r="23">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="18">
+      <c r="C23" s="20">
         <v>84.0</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="20">
         <v>76.0</v>
       </c>
-      <c r="E23" s="18">
-        <v>76.59</v>
-      </c>
-      <c r="G23" s="21"/>
+      <c r="E23" s="20">
+        <v>77.0</v>
+      </c>
+      <c r="G23" s="24"/>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="14">
+      <c r="A24" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="16">
         <v>84.0</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="16">
         <v>87.0</v>
       </c>
-      <c r="E24" s="14">
-        <v>92.27</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="16"/>
+      <c r="E24" s="16">
+        <v>93.0</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="18">
+      <c r="A25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="20">
         <v>82.0</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="20">
         <v>85.0</v>
       </c>
-      <c r="E25" s="18">
-        <v>86.85</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="9"/>
+      <c r="E25" s="20">
+        <v>87.0</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26">
-      <c r="A26" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="18">
+      <c r="A26" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="20">
         <v>75.0</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="20">
         <v>80.0</v>
       </c>
-      <c r="E26" s="18">
-        <v>85.8</v>
-      </c>
-      <c r="G26" s="21"/>
+      <c r="E26" s="20">
+        <v>86.0</v>
+      </c>
+      <c r="G26" s="24"/>
     </row>
     <row r="27">
-      <c r="A27" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="18">
+      <c r="A27" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="20">
         <v>78.0</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="20">
         <v>78.0</v>
       </c>
-      <c r="E27" s="18">
-        <v>78.32</v>
-      </c>
-      <c r="G27" s="21"/>
+      <c r="E27" s="20">
+        <v>78.0</v>
+      </c>
+      <c r="G27" s="24"/>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="14">
+      <c r="A28" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="16">
         <v>78.0</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="16">
         <v>80.0</v>
       </c>
-      <c r="E28" s="14">
-        <v>80.33</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="16"/>
+      <c r="E28" s="16">
+        <v>80.0</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="18">
+      <c r="A29" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="20">
         <v>91.0</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="20">
         <v>91.0</v>
       </c>
-      <c r="E29" s="18">
-        <v>91.09</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="9"/>
+      <c r="E29" s="20">
+        <v>91.0</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="22">
+      <c r="A30" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="25">
         <v>87.0</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="25">
         <v>92.0</v>
       </c>
-      <c r="E30" s="22">
-        <v>92.64</v>
-      </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="16"/>
+      <c r="E30" s="25">
+        <v>93.0</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="18">
+      <c r="A31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="20">
         <v>84.0</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="20">
         <v>92.0</v>
       </c>
-      <c r="E31" s="18">
-        <v>89.27</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="9"/>
+      <c r="E31" s="20">
+        <v>91.0</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="14">
+      <c r="A32" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="16">
         <v>86.0</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="16">
         <v>87.0</v>
       </c>
-      <c r="E32" s="14">
-        <v>88.43</v>
-      </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="16"/>
+      <c r="E32" s="16">
+        <v>88.0</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
@@ -5022,343 +5066,343 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="28">
+        <v>2017.0</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-    </row>
-    <row r="2">
-      <c r="B2" s="25">
-        <v>2017.0</v>
-      </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="G3" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="H3" s="27"/>
+      <c r="I3" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25" t="s">
+      <c r="J3" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="K3" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="K3" s="25" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="4">
-      <c r="B4" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="30" t="s">
+      <c r="B4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="30" t="s">
+      <c r="G4" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="27"/>
+      <c r="I4" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="C5" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" s="32" t="s">
+      <c r="D7" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="30" t="s">
+      <c r="G7" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="J7" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="H9" s="27"/>
+      <c r="I9" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="K7" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>101</v>
+      <c r="J9" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>101</v>
+      <c r="B10" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>105</v>
+      <c r="B11" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>102</v>
+      <c r="B12" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -6371,876 +6415,876 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="28">
+        <v>2017.0</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2">
-      <c r="B2" s="25">
-        <v>2017.0</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="37"/>
+      <c r="J2" s="28"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="25"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="35" t="s">
+      <c r="E3" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="36" t="s">
+      <c r="G3" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="4">
-      <c r="B4" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="40" t="s">
+      <c r="B4" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="43"/>
+      <c r="J4" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H5" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="48"/>
+      <c r="J5" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="40" t="s">
+    </row>
+    <row r="6">
+      <c r="B6" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="40" t="s">
+      <c r="D6" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="37"/>
+      <c r="J6" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="40" t="s">
-        <v>101</v>
+      <c r="D7" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="42" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="40" t="s">
-        <v>102</v>
+      <c r="B8" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="42" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="45" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="40" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="48"/>
+      <c r="J9" s="42" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="40" t="s">
-        <v>103</v>
+      <c r="D10" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="42" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="44" t="s">
-        <v>48</v>
+      <c r="B11" s="45" t="s">
+        <v>34</v>
       </c>
       <c r="C11" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="48"/>
+      <c r="J11" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="40" t="s">
+      <c r="H12" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="37"/>
+      <c r="J12" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="40" t="s">
+    </row>
+    <row r="13">
+      <c r="B13" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="40" t="s">
+      <c r="E13" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="48"/>
+      <c r="J13" s="42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="40" t="s">
+    <row r="14">
+      <c r="B14" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="37"/>
+      <c r="J14" s="42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="37"/>
+      <c r="J15" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="37"/>
+      <c r="J16" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="37"/>
+      <c r="J17" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="48"/>
+      <c r="J19" s="42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="40" t="s">
+      <c r="I20" s="37"/>
+      <c r="J20" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="I13" s="47"/>
-      <c r="J13" s="40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="48" t="s">
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="B21" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" s="37"/>
+      <c r="J21" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="B22" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="48" t="s">
+      <c r="C22" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="J22" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="B23" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="37"/>
+      <c r="J23" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="B24" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="48" t="s">
+      <c r="C24" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="37"/>
+      <c r="J24" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="B25" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" s="48"/>
+      <c r="J25" s="42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="B26" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="48" t="s">
+      <c r="C26" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" s="37"/>
+      <c r="J26" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="B27" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H18" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" s="47"/>
-      <c r="J19" s="40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="48" t="s">
+      <c r="C27" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="37"/>
+      <c r="J27" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="B28" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="37"/>
+      <c r="J28" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="B29" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="48" t="s">
+      <c r="C29" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="48"/>
+      <c r="J29" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="B30" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="48" t="s">
+      <c r="C30" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="37"/>
+      <c r="J30" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="B31" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="48" t="s">
+      <c r="C31" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" s="48"/>
+      <c r="J31" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="B32" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H25" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I25" s="47"/>
-      <c r="J25" s="40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="48" t="s">
+      <c r="D32" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="37"/>
+      <c r="J32" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="B33" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="H26" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G27" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H28" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H29" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="I29" s="47"/>
-      <c r="J29" s="40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H31" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="I31" s="47"/>
-      <c r="J31" s="40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H32" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I32" s="34"/>
-      <c r="J32" s="40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="44" t="s">
-        <v>86</v>
-      </c>
       <c r="C33" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H33" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="I33" s="47"/>
-      <c r="J33" s="40" t="s">
-        <v>101</v>
+        <v>76</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="I33" s="48"/>
+      <c r="J33" s="42" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1"/>
@@ -8237,903 +8281,903 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="44"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="28">
+        <v>2017.0</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="37"/>
-    </row>
-    <row r="2">
-      <c r="B2" s="25">
-        <v>2017.0</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="36" t="s">
+      <c r="F3" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="35" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="47" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="41" t="s">
+      <c r="C4" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="27"/>
+      <c r="J4" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="27"/>
+      <c r="J5" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="27"/>
+      <c r="J7" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="27"/>
+      <c r="J8" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="27"/>
+      <c r="J9" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="45" t="s">
+      <c r="F10" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="27"/>
+      <c r="J10" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="40" t="s">
-        <v>105</v>
+      <c r="D11" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="27"/>
+      <c r="J11" s="42" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="45" t="s">
+      <c r="B12" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="40" t="s">
-        <v>101</v>
+      <c r="C12" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="27"/>
+      <c r="J12" s="42" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="40" t="s">
-        <v>101</v>
+      <c r="D13" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" s="27"/>
+      <c r="J13" s="42" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="40" t="s">
-        <v>105</v>
+      <c r="B14" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="27"/>
+      <c r="J14" s="42" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="40" t="s">
-        <v>101</v>
+      <c r="B15" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="42" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="40" t="s">
-        <v>105</v>
+      <c r="B16" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="27"/>
+      <c r="J16" s="42" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="40" t="s">
-        <v>105</v>
+      <c r="D17" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="27"/>
+      <c r="J17" s="42" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="40" t="s">
-        <v>105</v>
+      <c r="B18" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="42" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="40" t="s">
-        <v>101</v>
+      <c r="B19" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="42" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="40" t="s">
-        <v>105</v>
+      <c r="B20" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="42" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="40" t="s">
-        <v>101</v>
+      <c r="B21" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="27"/>
+      <c r="J21" s="42" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="40" t="s">
-        <v>105</v>
+      <c r="B22" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="27"/>
+      <c r="J22" s="42" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="40" t="s">
-        <v>101</v>
+      <c r="B23" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="27"/>
+      <c r="J23" s="42" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="40" t="s">
-        <v>101</v>
+      <c r="B24" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="27"/>
+      <c r="J24" s="42" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H25" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="40" t="s">
-        <v>101</v>
+      <c r="D25" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="27"/>
+      <c r="J25" s="42" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H26" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="40" t="s">
-        <v>101</v>
+      <c r="B26" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="27"/>
+      <c r="J26" s="42" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G27" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="40" t="s">
-        <v>105</v>
+      <c r="B27" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" s="27"/>
+      <c r="J27" s="42" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="40" t="s">
-        <v>105</v>
+      <c r="B28" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" s="27"/>
+      <c r="J28" s="42" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I29" s="24"/>
-      <c r="J29" s="40" t="s">
-        <v>101</v>
+      <c r="B29" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" s="27"/>
+      <c r="J29" s="42" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F30" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G30" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H30" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="40" t="s">
-        <v>101</v>
+      <c r="B30" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" s="27"/>
+      <c r="J30" s="42" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G31" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H31" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="I31" s="24"/>
-      <c r="J31" s="40" t="s">
-        <v>105</v>
+      <c r="B31" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" s="27"/>
+      <c r="J31" s="42" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H32" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I32" s="24"/>
-      <c r="J32" s="40" t="s">
-        <v>105</v>
+      <c r="B32" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="27"/>
+      <c r="J32" s="42" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H33" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I33" s="24"/>
-      <c r="J33" s="40" t="s">
-        <v>102</v>
+      <c r="B33" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" s="27"/>
+      <c r="J33" s="42" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H34" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="40" t="s">
-        <v>105</v>
+      <c r="B34" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" s="27"/>
+      <c r="J34" s="42" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -10129,42 +10173,58 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="D1" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="50" t="s">
+    </row>
+    <row r="2" ht="12.75" customHeight="1">
+      <c r="A2" s="54">
+        <v>43228.0</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56">
+        <v>2017.0</v>
+      </c>
+      <c r="D2" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="49" t="s">
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
+      <c r="A3" s="58">
+        <v>43252.0</v>
+      </c>
+      <c r="B3" s="59" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="10">
-        <v>43228.0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52">
+      <c r="C3" s="60">
         <v>2017.0</v>
       </c>
-      <c r="D2" s="53" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="D3" s="61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
+      <c r="A4" s="58">
+        <v>43311.0</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="60">
+        <v>2017.0</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>

--- a/static/download/2017/RP2_SAF_EoSM_2017.xlsx
+++ b/static/download/2017/RP2_SAF_EoSM_2017.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Meta data" sheetId="1" r:id="rId3"/>
@@ -22,238 +22,238 @@
     <t>Data source</t>
   </si>
   <si>
+    <t>EASA</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Release date</t>
+  </si>
+  <si>
+    <t>Meta data</t>
+  </si>
+  <si>
+    <t>Metadata - Single European Sky Portal</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>pru-support@eurocontrol.int</t>
+  </si>
+  <si>
     <t>STATE</t>
   </si>
   <si>
+    <t>FAB</t>
+  </si>
+  <si>
+    <t>EoSM Score (2015)</t>
+  </si>
+  <si>
+    <t>EoSM Score (2016)</t>
+  </si>
+  <si>
+    <t>EoSM Score (2017)</t>
+  </si>
+  <si>
+    <t>EoSM Score (2018)</t>
+  </si>
+  <si>
+    <t>EoSM Score (2019)</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Baltic FAB</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>BLUE MED FAB</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>DANUBE FAB</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>DK-SE FAB</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>FAB CE</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>FABEC</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>NEFAB</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>SW FAB</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>UK-Ireland FAB</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
     <t>ANSP</t>
   </si>
   <si>
-    <t>EASA</t>
-  </si>
-  <si>
-    <t>FAB</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>EoSM Score (2015)</t>
-  </si>
-  <si>
-    <t>EoSM Score (2016)</t>
-  </si>
-  <si>
-    <t>EoSM Score (2017)</t>
-  </si>
-  <si>
-    <t>EoSM Score (2018)</t>
-  </si>
-  <si>
-    <t>EoSM Score (2019)</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Release date</t>
-  </si>
-  <si>
     <t>ORO NAVIGACIJA</t>
   </si>
   <si>
-    <t>Baltic FAB</t>
-  </si>
-  <si>
-    <t>Meta data</t>
-  </si>
-  <si>
-    <t>Effectiveness of Safety Management (EoSM)</t>
-  </si>
-  <si>
     <t>PANSA</t>
   </si>
   <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>NSA-PRU-Support@eurocontrol.int</t>
-  </si>
-  <si>
     <t>CYATS</t>
   </si>
   <si>
-    <t>BLUE MED FAB</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
     <t>HANSP</t>
   </si>
   <si>
     <t>ENAV</t>
   </si>
   <si>
-    <t>Italy</t>
-  </si>
-  <si>
     <t>MATS</t>
   </si>
   <si>
-    <t>Malta</t>
-  </si>
-  <si>
     <t>BULATSA</t>
   </si>
   <si>
-    <t>DANUBE FAB</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
     <t>ROMATSA</t>
   </si>
   <si>
-    <t>Romania</t>
-  </si>
-  <si>
     <t>NAVIAIR</t>
   </si>
   <si>
-    <t>DK-SE FAB</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
     <t>LFV NUAC</t>
   </si>
   <si>
-    <t>Sweden</t>
-  </si>
-  <si>
     <t>Austro Control</t>
   </si>
   <si>
-    <t>FAB CE</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
     <t>Croatia Control</t>
   </si>
   <si>
-    <t>Croatia</t>
-  </si>
-  <si>
     <t>ANS CR</t>
   </si>
   <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
     <t>HungaroControl</t>
   </si>
   <si>
     <t>LPS SR</t>
   </si>
   <si>
-    <t>Hungary</t>
-  </si>
-  <si>
     <t>Slovenia Control</t>
   </si>
   <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
     <t>Belgocontrol</t>
   </si>
   <si>
-    <t>FABEC</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
     <t>DSNA</t>
   </si>
   <si>
-    <t>Belgium</t>
-  </si>
-  <si>
     <t>DFS</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>NEFAB</t>
-  </si>
-  <si>
     <t>ANA LUX</t>
   </si>
   <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
     <t>LVNL</t>
   </si>
   <si>
-    <t>Norway</t>
-  </si>
-  <si>
     <t>MUAC</t>
   </si>
   <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>SW FAB</t>
-  </si>
-  <si>
     <t>SKYGUIDE</t>
   </si>
   <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>UK-Ireland FAB</t>
-  </si>
-  <si>
     <t>EANS</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>ANS Finland</t>
@@ -344,13 +344,16 @@
     <t>Min. Lev. (State)</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>Min. Lev. (all other MOs)</t>
   </si>
   <si>
     <t>Oro Navigacija</t>
   </si>
   <si>
-    <t>E</t>
+    <t>Skyguide</t>
   </si>
   <si>
     <t>Change date</t>
@@ -369,9 +372,6 @@
   </si>
   <si>
     <t>EoSM_ANSP_MIN_LEV</t>
-  </si>
-  <si>
-    <t>Skyguide</t>
   </si>
   <si>
     <t>IAA Component 1 changed from B to D</t>
@@ -390,7 +390,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -403,13 +403,25 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="9.0"/>
+      <color rgb="FF396EA2"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
       <sz val="9.0"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -419,12 +431,6 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9.0"/>
-      <color rgb="FF396EA2"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -458,14 +464,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor rgb="FF93C47D"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
     <fill>
@@ -508,6 +514,14 @@
       <bottom/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -542,14 +556,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -675,119 +681,122 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="4" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="3" fillId="4" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="5" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="5" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="5" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="7" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="15" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="16" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="17" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="18" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="16" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="6" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="6" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="8" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="6" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="6" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="8" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="6" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="9" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="2" fillId="9" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="9" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="4" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="5" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="4" fontId="4" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="4" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="6" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="15" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="16" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="17" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="18" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="16" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="6" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="6" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="8" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="6" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="6" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="9" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="7" fillId="8" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="9" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="6" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="9" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="3" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="20" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="19" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="19" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="19" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -799,35 +808,35 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
@@ -835,51 +844,51 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.0"/>
-    <col customWidth="1" min="2" max="2" width="77.43"/>
-    <col customWidth="1" min="3" max="26" width="17.29"/>
+    <col customWidth="1" min="1" max="1" width="20.13"/>
+    <col customWidth="1" min="2" max="2" width="67.75"/>
+    <col customWidth="1" min="3" max="26" width="15.13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
         <v>1.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="7">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
         <v>43311.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1874,7 +1883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFB6D7A8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1883,600 +1892,600 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.29"/>
-    <col customWidth="1" min="2" max="7" width="19.29"/>
-    <col customWidth="1" min="8" max="26" width="17.29"/>
+    <col customWidth="1" min="1" max="1" width="16.0"/>
+    <col customWidth="1" min="2" max="7" width="16.88"/>
+    <col customWidth="1" min="8" max="26" width="15.13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="D1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="11">
         <v>43.0</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="12">
         <v>48.0</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="12">
         <v>55.0</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="12"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="16">
+        <v>56.0</v>
+      </c>
+      <c r="D3" s="17">
+        <v>54.0</v>
+      </c>
+      <c r="E3" s="17">
+        <v>54.0</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="17">
-        <v>56.0</v>
-      </c>
-      <c r="D3" s="16">
-        <v>54.0</v>
-      </c>
-      <c r="E3" s="16">
-        <v>54.0</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="11">
         <v>52.0</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>55.0</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>52.0</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="12"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="23">
+      <c r="A5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="22">
         <v>66.0</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>71.0</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>73.0</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="24"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="A6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="22">
         <v>52.0</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>63.0</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>66.0</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="24"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="17">
+        <v>19</v>
+      </c>
+      <c r="C7" s="16">
         <v>50.0</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="17">
         <v>52.0</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="17">
         <v>52.0</v>
       </c>
       <c r="F7" s="15"/>
-      <c r="G7" s="19"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="A8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="11">
         <v>48.0</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>40.0</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>47.0</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="12"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="17">
+        <v>24</v>
+      </c>
+      <c r="C9" s="16">
         <v>60.0</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="17">
         <v>61.0</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="17">
         <v>56.0</v>
       </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="19"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="A10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="11">
         <v>42.0</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>46.0</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>47.0</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="12"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="17">
+        <v>27</v>
+      </c>
+      <c r="C11" s="16">
         <v>54.0</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="17">
         <v>61.0</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="17">
         <v>52.0</v>
       </c>
       <c r="F11" s="15"/>
-      <c r="G11" s="19"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="A12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="11">
         <v>58.0</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>61.0</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <v>66.0</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="12"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13">
-      <c r="A13" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="23">
+      <c r="A13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="22">
         <v>47.0</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>49.0</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>55.0</v>
       </c>
-      <c r="G13" s="24"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14">
-      <c r="A14" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="23">
+      <c r="A14" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="22">
         <v>69.0</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>72.0</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>79.0</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="A15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="22">
         <v>46.0</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>45.0</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>46.0</v>
       </c>
-      <c r="G15" s="24"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16">
-      <c r="A16" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="23">
+      <c r="A16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="22">
         <v>56.0</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <v>60.0</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <v>60.0</v>
       </c>
-      <c r="G16" s="24"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="16">
+        <v>42.0</v>
+      </c>
+      <c r="D17" s="17">
+        <v>58.0</v>
+      </c>
+      <c r="E17" s="17">
+        <v>72.0</v>
+      </c>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="11">
+        <v>62.0</v>
+      </c>
+      <c r="D18" s="19">
+        <v>64.0</v>
+      </c>
+      <c r="E18" s="19">
+        <v>64.0</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="22">
+        <v>64.0</v>
+      </c>
+      <c r="D19" s="19">
+        <v>71.0</v>
+      </c>
+      <c r="E19" s="19">
+        <v>72.0</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="22">
+        <v>55.0</v>
+      </c>
+      <c r="D20" s="19">
+        <v>70.0</v>
+      </c>
+      <c r="E20" s="19">
+        <v>69.0</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="22">
+        <v>47.0</v>
+      </c>
+      <c r="D21" s="19">
+        <v>58.0</v>
+      </c>
+      <c r="E21" s="19">
+        <v>63.0</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="17">
-        <v>42.0</v>
-      </c>
-      <c r="D17" s="16">
-        <v>58.0</v>
-      </c>
-      <c r="E17" s="16">
-        <v>72.0</v>
-      </c>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="9">
-        <v>62.0</v>
-      </c>
-      <c r="D18" s="20">
+      <c r="B22" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="22">
+        <v>59.0</v>
+      </c>
+      <c r="D22" s="19">
         <v>64.0</v>
       </c>
-      <c r="E18" s="20">
-        <v>64.0</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="23">
-        <v>64.0</v>
-      </c>
-      <c r="D19" s="20">
-        <v>71.0</v>
-      </c>
-      <c r="E19" s="20">
-        <v>72.0</v>
-      </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="23">
-        <v>55.0</v>
-      </c>
-      <c r="D20" s="20">
+      <c r="E22" s="19">
         <v>70.0</v>
       </c>
-      <c r="E20" s="20">
-        <v>69.0</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="23">
-        <v>47.0</v>
-      </c>
-      <c r="D21" s="20">
-        <v>58.0</v>
-      </c>
-      <c r="E21" s="20">
-        <v>63.0</v>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="24"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="23">
-        <v>59.0</v>
-      </c>
-      <c r="D22" s="20">
-        <v>64.0</v>
-      </c>
-      <c r="E22" s="20">
-        <v>70.0</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="24"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="23"/>
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="17">
+        <v>37</v>
+      </c>
+      <c r="C23" s="16">
         <v>66.0</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="17">
         <v>71.0</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="17">
         <v>76.0</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="19"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="9">
+      <c r="A24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="11">
         <v>46.0</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="19">
         <v>53.0</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="19">
         <v>57.0</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="12"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25">
-      <c r="A25" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="23">
+      <c r="A25" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="22">
         <v>61.0</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="19">
         <v>75.0</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="19">
         <v>84.0</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="24"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="23"/>
     </row>
     <row r="26">
-      <c r="A26" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="23">
+      <c r="A26" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="22">
         <v>58.0</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="19">
         <v>64.0</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="19">
         <v>63.0</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="24"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27">
       <c r="A27" s="14" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="17">
+        <v>44</v>
+      </c>
+      <c r="C27" s="16">
         <v>52.0</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="17">
         <v>56.0</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="17">
         <v>60.0</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="19"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="9">
+      <c r="A28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="11">
         <v>44.0</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="19">
         <v>41.0</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="19">
         <v>50.0</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="12"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="17">
+        <v>49</v>
+      </c>
+      <c r="C29" s="16">
         <v>56.0</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="17">
         <v>59.0</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="17">
         <v>62.0</v>
       </c>
       <c r="F29" s="15"/>
-      <c r="G29" s="19"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="9">
+      <c r="A30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="11">
         <v>79.0</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="19">
         <v>79.0</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="19">
         <v>86.0</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="12"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="17">
+        <v>52</v>
+      </c>
+      <c r="C31" s="16">
         <v>81.0</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="17">
         <v>86.0</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="17">
         <v>88.0</v>
       </c>
       <c r="F31" s="15"/>
-      <c r="G31" s="19"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -3456,7 +3465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFB6D7A8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3465,611 +3474,611 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.29"/>
-    <col customWidth="1" min="2" max="7" width="19.29"/>
-    <col customWidth="1" min="8" max="26" width="17.29"/>
+    <col customWidth="1" min="1" max="1" width="16.0"/>
+    <col customWidth="1" min="2" max="7" width="16.88"/>
+    <col customWidth="1" min="8" max="26" width="15.13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="A1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="D1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="A2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="12">
         <v>82.0</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="12">
         <v>82.0</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="12">
         <v>78.0</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="16">
+        <v>16</v>
+      </c>
+      <c r="C3" s="17">
         <v>24.0</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="17">
         <v>29.0</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="17">
         <v>45.0</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="20">
+      <c r="A4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="19">
         <v>62.0</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>58.0</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>58.0</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="20">
+      <c r="A5" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="19">
         <v>73.0</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>75.0</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>75.0</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="20">
+      <c r="A6" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="19">
         <v>76.0</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>77.0</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>76.0</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="16">
+        <v>19</v>
+      </c>
+      <c r="C7" s="17">
         <v>82.0</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="17">
         <v>83.0</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="17">
         <v>85.0</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="20">
+      <c r="A8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="19">
         <v>86.0</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>86.0</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>92.0</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="16">
+        <v>24</v>
+      </c>
+      <c r="C9" s="17">
         <v>82.0</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="17">
         <v>84.0</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="17">
         <v>84.0</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="20">
+      <c r="A10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="19">
         <v>88.0</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>88.0</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>87.0</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="16">
+        <v>27</v>
+      </c>
+      <c r="C11" s="17">
         <v>74.0</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="17">
         <v>77.0</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="17">
         <v>79.0</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="20">
+      <c r="A12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="19">
         <v>90.0</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>91.0</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <v>91.0</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13">
-      <c r="A13" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="20">
+      <c r="A13" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="19">
         <v>77.0</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>82.0</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>85.0</v>
       </c>
-      <c r="G13" s="24"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14">
-      <c r="A14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="20">
+      <c r="A14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="19">
         <v>83.0</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>83.0</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>83.0</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="20">
+      <c r="A15" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="19">
         <v>78.0</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>77.0</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>79.0</v>
       </c>
-      <c r="G15" s="24"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16">
-      <c r="A16" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="20">
+      <c r="A16" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="19">
         <v>88.0</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <v>86.0</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <v>89.0</v>
       </c>
-      <c r="G16" s="24"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="16">
+        <v>30</v>
+      </c>
+      <c r="C17" s="17">
         <v>74.0</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="17">
         <v>70.0</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="17">
         <v>76.0</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="20">
+      <c r="A18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="19">
         <v>76.0</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <v>78.0</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <v>82.0</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19">
-      <c r="A19" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="20">
+      <c r="A19" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="19">
         <v>86.0</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="19">
         <v>85.0</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="19">
         <v>91.0</v>
       </c>
-      <c r="G19" s="24"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20">
-      <c r="A20" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="20">
+      <c r="A20" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="19">
         <v>92.0</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <v>92.0</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="19">
         <v>94.0</v>
       </c>
-      <c r="G20" s="24"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21">
-      <c r="A21" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="20">
+      <c r="A21" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="19">
         <v>71.0</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <v>74.0</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="19">
         <v>79.0</v>
       </c>
-      <c r="G21" s="24"/>
+      <c r="G21" s="23"/>
     </row>
     <row r="22">
-      <c r="A22" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="20">
+      <c r="A22" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="19">
         <v>86.0</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="19">
         <v>85.0</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="19">
         <v>75.0</v>
       </c>
-      <c r="G22" s="24"/>
+      <c r="G22" s="23"/>
     </row>
     <row r="23">
-      <c r="A23" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="20">
+      <c r="A23" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="19">
         <v>84.0</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="19">
         <v>76.0</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="19">
         <v>77.0</v>
       </c>
-      <c r="G23" s="24"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="16">
+        <v>37</v>
+      </c>
+      <c r="C24" s="17">
         <v>84.0</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="17">
         <v>87.0</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="17">
         <v>93.0</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="20">
+      <c r="A25" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="19">
         <v>82.0</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="19">
         <v>85.0</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="19">
         <v>87.0</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="20">
+      <c r="B26" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="19">
         <v>75.0</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="19">
         <v>80.0</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="19">
         <v>86.0</v>
       </c>
-      <c r="G26" s="24"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="20">
+      <c r="B27" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="19">
         <v>78.0</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="19">
         <v>78.0</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="19">
         <v>78.0</v>
       </c>
-      <c r="G27" s="24"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="16">
+        <v>44</v>
+      </c>
+      <c r="C28" s="17">
         <v>78.0</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="17">
         <v>80.0</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="17">
         <v>80.0</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="20">
+      <c r="B29" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="19">
         <v>91.0</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="19">
         <v>91.0</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="19">
         <v>91.0</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="25">
+        <v>49</v>
+      </c>
+      <c r="C30" s="26">
         <v>87.0</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="26">
         <v>92.0</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="26">
         <v>93.0</v>
       </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="20">
+      <c r="B31" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="19">
         <v>84.0</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="19">
         <v>92.0</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="19">
         <v>91.0</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32">
       <c r="A32" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="16">
+        <v>52</v>
+      </c>
+      <c r="C32" s="17">
         <v>86.0</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="17">
         <v>87.0</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="17">
         <v>88.0</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
@@ -5048,7 +5057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFB6D7A8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5057,351 +5066,351 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.0"/>
-    <col customWidth="1" min="2" max="7" width="17.29"/>
-    <col customWidth="1" min="8" max="8" width="5.43"/>
-    <col customWidth="1" min="9" max="26" width="17.29"/>
+    <col customWidth="1" min="1" max="1" width="5.25"/>
+    <col customWidth="1" min="2" max="7" width="15.13"/>
+    <col customWidth="1" min="8" max="8" width="4.75"/>
+    <col customWidth="1" min="9" max="26" width="15.13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2">
-      <c r="B2" s="28">
+      <c r="B2" s="29">
         <v>2017.0</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="29" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3">
-      <c r="B3" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28" t="s">
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="29" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="33" t="s">
+      <c r="B4" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="34" t="s">
+      <c r="G4" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="J4" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="K4" s="35" t="s">
+      <c r="J4" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="36" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="K5" s="36" t="s">
+      <c r="C5" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="37" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="K6" s="36" t="s">
+      <c r="B6" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="37" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="33" t="s">
+      <c r="D7" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="33" t="s">
+      <c r="G7" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="J7" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7" s="36" t="s">
+      <c r="J7" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" s="36" t="s">
+      <c r="B8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="33" t="s">
+      <c r="B9" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="33" t="s">
+      <c r="H9" s="28"/>
+      <c r="I9" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="J9" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="K9" s="36" t="s">
+      <c r="J9" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" s="36" t="s">
+      <c r="B10" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" s="36" t="s">
+      <c r="B11" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="37" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="K12" s="36" t="s">
+      <c r="B12" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="37" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6397,7 +6406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFB6D7A8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6406,884 +6415,884 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.57"/>
-    <col customWidth="1" min="2" max="8" width="17.29"/>
-    <col customWidth="1" min="9" max="9" width="3.71"/>
-    <col customWidth="1" min="10" max="26" width="17.29"/>
+    <col customWidth="1" min="1" max="1" width="4.0"/>
+    <col customWidth="1" min="2" max="8" width="15.13"/>
+    <col customWidth="1" min="9" max="9" width="3.25"/>
+    <col customWidth="1" min="10" max="26" width="15.13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2">
-      <c r="B2" s="28">
+      <c r="B2" s="29">
         <v>2017.0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="28"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="39" t="s">
+      <c r="C3" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="42" t="s">
+      <c r="B4" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="44"/>
+      <c r="J4" s="43" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="47"/>
+      <c r="J5" s="43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="42" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="42" t="s">
+      <c r="D6" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="38"/>
+      <c r="J6" s="43" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="42" t="s">
+      <c r="D7" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="43" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="42" t="s">
+      <c r="D8" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="38"/>
+      <c r="J8" s="43" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="45" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C9" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="42" t="s">
+      <c r="D9" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="47"/>
+      <c r="J9" s="43" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="42" t="s">
+      <c r="B10" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="38"/>
+      <c r="J10" s="43" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="45" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="47"/>
+      <c r="J11" s="43" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="42" t="s">
+      <c r="B12" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="H12" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="42" t="s">
+      <c r="H12" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="38"/>
+      <c r="J12" s="43" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="45" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="42" t="s">
+      <c r="E13" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="47"/>
+      <c r="J13" s="43" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="37"/>
-      <c r="J14" s="42" t="s">
+      <c r="B14" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="38"/>
+      <c r="J14" s="43" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="37"/>
-      <c r="J15" s="42" t="s">
+      <c r="B15" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="38"/>
+      <c r="J15" s="43" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="42" t="s">
+      <c r="B16" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="38"/>
+      <c r="J16" s="43" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="37"/>
-      <c r="J17" s="42" t="s">
+      <c r="B17" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="38"/>
+      <c r="J17" s="43" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" s="37"/>
-      <c r="J18" s="42" t="s">
+      <c r="B18" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="38"/>
+      <c r="J18" s="43" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="45" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C19" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="47"/>
+      <c r="J19" s="43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="38"/>
+      <c r="J20" s="43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="B21" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" s="38"/>
+      <c r="J21" s="43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="B22" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="38"/>
+      <c r="J22" s="43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="B23" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="38"/>
+      <c r="J23" s="43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="B24" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="I20" s="37"/>
-      <c r="J20" s="42" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="I21" s="37"/>
-      <c r="J21" s="42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" s="37"/>
-      <c r="J23" s="42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I24" s="37"/>
-      <c r="J24" s="42" t="s">
+      <c r="C24" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="38"/>
+      <c r="J24" s="43" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="B25" s="45" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H25" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I25" s="48"/>
-      <c r="J25" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" s="47"/>
+      <c r="J25" s="43" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="I26" s="37"/>
-      <c r="J26" s="42" t="s">
+      <c r="B26" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" s="38"/>
+      <c r="J26" s="43" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H27" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="I27" s="37"/>
-      <c r="J27" s="42" t="s">
+      <c r="B27" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="38"/>
+      <c r="J27" s="43" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G28" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I28" s="37"/>
-      <c r="J28" s="42" t="s">
+      <c r="B28" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="38"/>
+      <c r="J28" s="43" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="B29" s="45" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H29" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="I29" s="48"/>
-      <c r="J29" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="47"/>
+      <c r="J29" s="43" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="H30" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I30" s="37"/>
-      <c r="J30" s="42" t="s">
+      <c r="B30" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="38"/>
+      <c r="J30" s="43" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="B31" s="45" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G31" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H31" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="I31" s="48"/>
-      <c r="J31" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" s="47"/>
+      <c r="J31" s="43" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H32" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I32" s="37"/>
-      <c r="J32" s="42" t="s">
+      <c r="B32" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="38"/>
+      <c r="J32" s="43" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="B33" s="45" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G33" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H33" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="I33" s="48"/>
-      <c r="J33" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="I33" s="47"/>
+      <c r="J33" s="43" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8263,7 +8272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFB6D7A8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8272,911 +8281,911 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.43"/>
-    <col customWidth="1" min="2" max="8" width="17.29"/>
-    <col customWidth="1" min="9" max="9" width="4.57"/>
-    <col customWidth="1" min="10" max="26" width="17.29"/>
+    <col customWidth="1" min="1" max="1" width="4.75"/>
+    <col customWidth="1" min="2" max="8" width="15.13"/>
+    <col customWidth="1" min="9" max="9" width="4.0"/>
+    <col customWidth="1" min="10" max="26" width="15.13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="44"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2">
-      <c r="B2" s="28">
+      <c r="B2" s="29">
         <v>2017.0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3">
-      <c r="B3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="28" t="s">
+      <c r="B3" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="38" t="s">
+      <c r="I3" s="28"/>
+      <c r="J3" s="39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="43" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="51" t="s">
+      <c r="F10" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="42" t="s">
+      <c r="D14" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="43" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="42" t="s">
+      <c r="B15" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="43" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="42" t="s">
+      <c r="B16" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="43" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="42" t="s">
+      <c r="B17" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="43" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="42" t="s">
+      <c r="B18" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="28"/>
+      <c r="J18" s="43" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="42" t="s">
+      <c r="B19" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="28"/>
+      <c r="J19" s="43" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="28"/>
+      <c r="J20" s="43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="B21" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="28"/>
+      <c r="J21" s="43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="B22" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="28"/>
+      <c r="J22" s="43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="B23" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="28"/>
+      <c r="J23" s="43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="B24" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="B25" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="28"/>
+      <c r="J25" s="43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="B26" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="28"/>
+      <c r="J26" s="43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="B27" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="B28" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="B29" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="J29" s="43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="B30" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" s="28"/>
+      <c r="J30" s="43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="B31" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" s="43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="B32" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="28"/>
+      <c r="J32" s="43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="B33" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="H22" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H25" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H27" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27" s="27"/>
-      <c r="J27" s="42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H28" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I28" s="27"/>
-      <c r="J28" s="42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H29" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I29" s="27"/>
-      <c r="J29" s="42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G30" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H30" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I30" s="27"/>
-      <c r="J30" s="42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G31" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H31" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="I31" s="27"/>
-      <c r="J31" s="42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H32" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I32" s="27"/>
-      <c r="J32" s="42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G33" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H33" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I33" s="27"/>
-      <c r="J33" s="42" t="s">
+      <c r="D33" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" s="28"/>
+      <c r="J33" s="43" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H34" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I34" s="27"/>
-      <c r="J34" s="42" t="s">
+      <c r="C34" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" s="28"/>
+      <c r="J34" s="43" t="s">
         <v>104</v>
       </c>
     </row>
@@ -10155,7 +10164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
@@ -10163,66 +10172,66 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.86"/>
-    <col customWidth="1" min="2" max="2" width="18.14"/>
-    <col customWidth="1" min="3" max="3" width="8.0"/>
-    <col customWidth="1" min="4" max="4" width="113.57"/>
-    <col customWidth="1" min="5" max="26" width="17.29"/>
+    <col customWidth="1" min="1" max="1" width="12.13"/>
+    <col customWidth="1" min="2" max="2" width="15.88"/>
+    <col customWidth="1" min="3" max="3" width="7.0"/>
+    <col customWidth="1" min="4" max="4" width="99.38"/>
+    <col customWidth="1" min="5" max="26" width="15.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="53" t="s">
+      <c r="A1" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="B1" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="C1" s="54" t="s">
         <v>114</v>
       </c>
+      <c r="D1" s="53" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="54">
+      <c r="A2" s="55">
         <v>43228.0</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56">
+      <c r="B2" s="56"/>
+      <c r="C2" s="57">
         <v>2017.0</v>
       </c>
-      <c r="D2" s="57" t="s">
-        <v>115</v>
+      <c r="D2" s="58" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="58">
+      <c r="A3" s="59">
         <v>43252.0</v>
       </c>
-      <c r="B3" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="60">
+      <c r="B3" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="61">
         <v>2017.0</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="62" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="58">
+      <c r="A4" s="59">
         <v>43311.0</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="61">
         <v>2017.0</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="62" t="s">
         <v>120</v>
       </c>
     </row>
